--- a/Docs/ISIS1225 - Tablas de Datos Lab 7.xlsx
+++ b/Docs/ISIS1225 - Tablas de Datos Lab 7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes.sharepoint.com/sites/ISIS1225/Documentos compartidos/General/202110/Laboratorios/Lab 07 - Colisiones/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehima\Documents\Semestre 3\Estrctura de datos y algoritmos\laboratorios\Laboratorio 7\LabCollision-S07-G02\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="511" documentId="8_{A25BB2A9-7879-4ABF-A93E-5BD797619927}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5A6E5986-5D76-40E6-8BB6-4E7550720C79}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDB88C4-B413-4C7B-844C-EF0A626AFFBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2127" yWindow="7073" windowWidth="4267" windowHeight="2354" tabRatio="767" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="767" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab7" sheetId="1" r:id="rId1"/>
@@ -71,6 +71,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -127,6 +130,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -153,7 +159,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -408,7 +414,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -481,7 +487,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -568,7 +574,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -577,16 +583,16 @@
             <c:numRef>
               <c:f>'Datos Lab7'!$B$3:$B$5</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>2273014.855</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>105</c:v>
+                  <c:v>2273115.1239999998</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>115</c:v>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>2273189.5980000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -595,16 +601,16 @@
             <c:numRef>
               <c:f>'Datos Lab7'!$C$3:$C$5</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>52959.523999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55</c:v>
+                  <c:v>52959.175000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75</c:v>
+                  <c:v>54227.855000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -694,7 +700,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -703,16 +709,16 @@
             <c:numRef>
               <c:f>'Datos Lab7'!$B$10:$B$12</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>2273040.63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120</c:v>
+                  <c:v>2273114.855</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>140</c:v>
+                  <c:v>2273174.8110000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -724,13 +730,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>54729.29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>55159.998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110</c:v>
+                  <c:v>55659.372000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -835,11 +841,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -873,7 +879,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1833162896"/>
@@ -957,11 +963,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -995,7 +1001,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="696671312"/>
@@ -1037,7 +1043,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1074,7 +1080,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -1648,7 +1654,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661768" cy="6283739"/>
+    <xdr:ext cx="8663609" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -1694,15 +1700,15 @@
   <autoFilter ref="A9:C12" xr:uid="{5C24B5A8-1B8E-4092-B34A-66FF5413D106}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Factor de Carga (CHAINING)" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Consumo de Datos [kB]" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Tiempo de Ejecución [ms]" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Consumo de Datos [kB]" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Tiempo de Ejecución [ms]" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2001,24 +2007,24 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C12" sqref="C10:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.64453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.05859375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.8203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2029,47 +2035,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0.3</v>
       </c>
-      <c r="B3" s="2">
-        <v>100</v>
-      </c>
-      <c r="C3" s="2">
-        <v>45</v>
+      <c r="B3" s="4">
+        <v>2273014.855</v>
+      </c>
+      <c r="C3" s="4">
+        <v>52959.523999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0.5</v>
       </c>
-      <c r="B4" s="2">
-        <v>105</v>
-      </c>
-      <c r="C4" s="2">
-        <v>55</v>
+      <c r="B4" s="4">
+        <v>2273115.1239999998</v>
+      </c>
+      <c r="C4" s="4">
+        <v>52959.175000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0.8</v>
       </c>
       <c r="B5" s="2">
-        <v>115</v>
-      </c>
-      <c r="C5" s="2">
-        <v>75</v>
+        <v>2273189.5980000002</v>
+      </c>
+      <c r="C5" s="4">
+        <v>54227.855000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -2080,40 +2086,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="2">
-        <v>100</v>
+      <c r="B10" s="4">
+        <v>2273040.63</v>
       </c>
       <c r="C10" s="2">
-        <v>90</v>
+        <v>54729.29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>4</v>
       </c>
-      <c r="B11" s="2">
-        <v>120</v>
+      <c r="B11" s="4">
+        <v>2273114.855</v>
       </c>
       <c r="C11" s="2">
-        <v>100</v>
+        <v>55159.998</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="2">
-        <v>140</v>
+      <c r="B12" s="4">
+        <v>2273174.8110000002</v>
       </c>
       <c r="C12" s="2">
-        <v>110</v>
+        <v>55659.372000000003</v>
       </c>
     </row>
-    <row r="21" ht="14.7" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="21" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
